--- a/data/trans_orig/Barthel_r-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Barthel_r-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49561</v>
+        <v>50046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58838</v>
+        <v>58829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.930283069035397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8289979627191171</v>
+        <v>0.8371185838796514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9841781868325088</v>
+        <v>0.9840253903832449</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>25819</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20545</v>
+        <v>19868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28802</v>
+        <v>28462</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8690567754378261</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6915346822433022</v>
+        <v>0.6687515224118147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9694715826356712</v>
+        <v>0.9580397882127252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>81435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74138</v>
+        <v>74737</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85639</v>
+        <v>85978</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9099580063817369</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8284206657666987</v>
+        <v>0.8351211277603661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9569359004217598</v>
+        <v>0.9607208888079873</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4933</v>
+        <v>4719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01580993345880353</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08251371379297563</v>
+        <v>0.07893672661764836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5336</v>
+        <v>5362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0578900742304418</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1795997960963143</v>
+        <v>0.1804814087252935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>2665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7224</v>
+        <v>7274</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02977911969241736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009171158775410622</v>
+        <v>0.009445391625397119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08071800904457592</v>
+        <v>0.08128173220890464</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9283</v>
+        <v>8140</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03801585749333035</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1552799998003675</v>
+        <v>0.1361619783817804</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6760</v>
+        <v>6552</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07305315033173214</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2275523852611387</v>
+        <v>0.2205486334346294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -928,19 +928,19 @@
         <v>4443</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1436</v>
+        <v>1267</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10488</v>
+        <v>10849</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04964705595907264</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.016044555149574</v>
+        <v>0.01415335530840565</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1171880104450463</v>
+        <v>0.1212229324673426</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5354</v>
+        <v>5414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01061581796677312</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05982959111516284</v>
+        <v>0.06049284499033896</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>45485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39021</v>
+        <v>39327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49021</v>
+        <v>48939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8948479252105285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7676706058134519</v>
+        <v>0.773704574330911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9644076420125252</v>
+        <v>0.9627905004281001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>12538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8306</v>
+        <v>8055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14843</v>
+        <v>14879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7942722563743363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5261516645251522</v>
+        <v>0.5102807911288064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9402653372472554</v>
+        <v>0.9425257268587279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1184,19 +1184,19 @@
         <v>58024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51644</v>
+        <v>51537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62585</v>
+        <v>62785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8710148103663522</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7752540375331902</v>
+        <v>0.7736423602405399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9394910133108442</v>
+        <v>0.9424860328626441</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>4526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>10823</v>
@@ -1222,10 +1222,10 @@
         <v>0.08904529861692974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01941950344230415</v>
+        <v>0.02002562515941237</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2129218435755839</v>
+        <v>0.2129226501549992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>4526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1004</v>
+        <v>968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10385</v>
+        <v>10717</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06794450104999801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01507663327826343</v>
+        <v>0.01453790848571724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1558985124779085</v>
+        <v>0.1608816863565324</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1297,19 +1297,19 @@
         <v>3248</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7480</v>
+        <v>7731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2057277436256637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05973466275274472</v>
+        <v>0.05747427314127206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4738483354748477</v>
+        <v>0.489719208871193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1318,19 +1318,19 @@
         <v>4066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9435</v>
+        <v>9112</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06104068858364976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0177972253244069</v>
+        <v>0.01767463349454221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1416352834285453</v>
+        <v>0.1367784172595729</v>
       </c>
     </row>
     <row r="13">
@@ -1516,19 +1516,19 @@
         <v>62137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56238</v>
+        <v>55949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67201</v>
+        <v>66546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8659730177518211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7837605941435745</v>
+        <v>0.7797304346159746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9365510448670739</v>
+        <v>0.9274193930837101</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1537,19 +1537,19 @@
         <v>19802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1558,19 +1558,19 @@
         <v>81940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73277</v>
+        <v>74290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87524</v>
+        <v>87264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8532752413306544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.76306606342955</v>
+        <v>0.7736119794496411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9114281116148757</v>
+        <v>0.9087209846859534</v>
       </c>
     </row>
     <row r="17">
@@ -1587,19 +1587,19 @@
         <v>3500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8048</v>
+        <v>8499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.048777924773941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01209734024312302</v>
+        <v>0.01252739023604687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1121646971103124</v>
+        <v>0.118440780407494</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1621,19 +1621,19 @@
         <v>3500</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>938</v>
+        <v>879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8989</v>
+        <v>8110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03644734495470411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009772664484066071</v>
+        <v>0.009154312248836401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0936053266071612</v>
+        <v>0.08445123498615964</v>
       </c>
     </row>
     <row r="18">
@@ -1650,19 +1650,19 @@
         <v>3520</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8115</v>
+        <v>8191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04905321253392376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01212996070675389</v>
+        <v>0.01242330244947965</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1130928989158446</v>
+        <v>0.1141537526099003</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6941</v>
+        <v>6801</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09457228762057782</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2859422657058511</v>
+        <v>0.2801594327365749</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1692,19 +1692,19 @@
         <v>5816</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2293</v>
+        <v>2702</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12025</v>
+        <v>12066</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06055998719182557</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02387394543361925</v>
+        <v>0.0281408902272998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.125223501362599</v>
+        <v>0.1256455684899861</v>
       </c>
     </row>
     <row r="19">
@@ -1721,19 +1721,19 @@
         <v>2597</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6282</v>
+        <v>7344</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03619584494031416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01105062245230653</v>
+        <v>0.01121867637058997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08754626914759879</v>
+        <v>0.1023487911631374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1763,19 +1763,19 @@
         <v>3633</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9015</v>
+        <v>9492</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03783478921889238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009681977625480396</v>
+        <v>0.01072161561860952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09387545238189506</v>
+        <v>0.098846355301039</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="21">
@@ -1930,19 +1930,19 @@
         <v>223388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>212279</v>
+        <v>212059</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>232502</v>
+        <v>233232</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8589464539806058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8162300138383358</v>
+        <v>0.8153849993977981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.893991806752491</v>
+        <v>0.8967960964011243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -1951,19 +1951,19 @@
         <v>72663</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64804</v>
+        <v>64037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78029</v>
+        <v>78270</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8473602427985283</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.755718839004118</v>
+        <v>0.7467745217578937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9099378411409607</v>
+        <v>0.9127461335589736</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>313</v>
@@ -1972,19 +1972,19 @@
         <v>296051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283980</v>
+        <v>283543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>307676</v>
+        <v>307385</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8560734854482964</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.821169204171992</v>
+        <v>0.8199054611868992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8896882174566598</v>
+        <v>0.8888485103727769</v>
       </c>
     </row>
     <row r="23">
@@ -2001,19 +2001,19 @@
         <v>14282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8563</v>
+        <v>8515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22735</v>
+        <v>22903</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05491613588341526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03292669366354975</v>
+        <v>0.03273907371545468</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08741796368510574</v>
+        <v>0.08806405740356504</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2022,19 +2022,19 @@
         <v>5735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2293</v>
+        <v>2122</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12566</v>
+        <v>12242</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06687784299403583</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02674035208221907</v>
+        <v>0.02475009416077556</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1465383150041449</v>
+        <v>0.1427639401469342</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2043,19 +2043,19 @@
         <v>20017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13318</v>
+        <v>12278</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29806</v>
+        <v>29299</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05788221405870985</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03850964237412663</v>
+        <v>0.03550408958309682</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08618979502897309</v>
+        <v>0.08472164283277818</v>
       </c>
     </row>
     <row r="24">
@@ -2072,19 +2072,19 @@
         <v>15913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9631</v>
+        <v>9374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24531</v>
+        <v>24999</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0611851629620675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03703114449864511</v>
+        <v>0.03604497254175115</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09432202930238398</v>
+        <v>0.09612508949122738</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2093,19 +2093,19 @@
         <v>5141</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2005</v>
+        <v>1959</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11150</v>
+        <v>10672</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05994737723705731</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02338161943308944</v>
+        <v>0.02285069778602026</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1300309712596774</v>
+        <v>0.1244567381790749</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2114,19 +2114,19 @@
         <v>21053</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13289</v>
+        <v>13684</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30667</v>
+        <v>30190</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0608782361003168</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03842628489867751</v>
+        <v>0.03957014992156658</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0886768580006963</v>
+        <v>0.08729954008926163</v>
       </c>
     </row>
     <row r="25">
@@ -2143,19 +2143,19 @@
         <v>5651</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1961</v>
+        <v>1990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11529</v>
+        <v>11742</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02172850925772336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007539041669959124</v>
+        <v>0.007651293675851421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04432906837715955</v>
+        <v>0.04515081595826943</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7220</v>
+        <v>6684</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02581453697037855</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08419335275782039</v>
+        <v>0.07794940899232462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2185,19 +2185,19 @@
         <v>7865</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3646</v>
+        <v>3880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14945</v>
+        <v>14682</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02274169888944363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01054152836780001</v>
+        <v>0.01122063134487894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04321425551491336</v>
+        <v>0.04245501561850946</v>
       </c>
     </row>
     <row r="26">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003223737916188139</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01618288850859328</v>
+        <v>0.01614221778263698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4591</v>
+        <v>4226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002424365503233344</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01327663565964646</v>
+        <v>0.01221922533836152</v>
       </c>
     </row>
     <row r="27">
@@ -2352,19 +2352,19 @@
         <v>44265</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37967</v>
+        <v>37816</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49381</v>
+        <v>49126</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7980685565463808</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6845294260716662</v>
+        <v>0.6817925864517456</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8903118912473663</v>
+        <v>0.8857184752794027</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -2373,19 +2373,19 @@
         <v>69593</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59717</v>
+        <v>59499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77365</v>
+        <v>78112</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7230429560568621</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6204328978546311</v>
+        <v>0.6181671511294182</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8037921874123392</v>
+        <v>0.8115486192299354</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>115</v>
@@ -2394,19 +2394,19 @@
         <v>113858</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>101630</v>
+        <v>102320</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>124187</v>
+        <v>124196</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7504714538320454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.66987136368995</v>
+        <v>0.6744247841614677</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8185575747821351</v>
+        <v>0.8186146861658212</v>
       </c>
     </row>
     <row r="29">
@@ -2423,19 +2423,19 @@
         <v>3860</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>916</v>
+        <v>1008</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8806</v>
+        <v>8844</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0695913254960122</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01651756307307063</v>
+        <v>0.01817692759338098</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1587692648437651</v>
+        <v>0.1594580088051947</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2444,19 +2444,19 @@
         <v>8209</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3476</v>
+        <v>3629</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15599</v>
+        <v>15543</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08529186184761156</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03611460864040286</v>
+        <v>0.03770329237106983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1620638045251069</v>
+        <v>0.1614817874597495</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2465,19 +2465,19 @@
         <v>12069</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6618</v>
+        <v>6352</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20187</v>
+        <v>20674</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07955192609795782</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04362140538830774</v>
+        <v>0.04186488942708352</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1330593785389647</v>
+        <v>0.1362663569529253</v>
       </c>
     </row>
     <row r="30">
@@ -2494,19 +2494,19 @@
         <v>5475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2428</v>
+        <v>1988</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10941</v>
+        <v>11083</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09871266055088192</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04378026567390694</v>
+        <v>0.03584102258969447</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1972561830384388</v>
+        <v>0.1998210840409098</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2515,19 +2515,19 @@
         <v>12688</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6657</v>
+        <v>6726</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20481</v>
+        <v>20752</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1318201061059592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06916573633579236</v>
+        <v>0.06988334915578749</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2127850350616538</v>
+        <v>0.2156001021437716</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -2536,19 +2536,19 @@
         <v>18163</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11147</v>
+        <v>11206</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26969</v>
+        <v>28965</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1197164042918524</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07347462603089853</v>
+        <v>0.07386480897767804</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.177759903765095</v>
+        <v>0.1909152787117582</v>
       </c>
     </row>
     <row r="31">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6674</v>
+        <v>5626</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03362745740672507</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1203240660619658</v>
+        <v>0.1014377982342879</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2586,19 +2586,19 @@
         <v>5760</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12707</v>
+        <v>12043</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05984449931723244</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02215295367491981</v>
+        <v>0.02211191183476705</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1320245909702912</v>
+        <v>0.1251177196268871</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2607,19 +2607,19 @@
         <v>7625</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3208</v>
+        <v>2599</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15355</v>
+        <v>14172</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05025984993059142</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02114626152381795</v>
+        <v>0.01712894124927017</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1012087645720569</v>
+        <v>0.09341160934031893</v>
       </c>
     </row>
     <row r="32">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>2.671621453074304e-06</v>
+        <v>2.971295502662361e-06</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>2.094625176468412e-06</v>
+        <v>2.109228485372754e-06</v>
       </c>
     </row>
     <row r="33">
@@ -2787,19 +2787,19 @@
         <v>338524</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>320135</v>
+        <v>320207</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>353651</v>
+        <v>354834</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7963951980757646</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7531338050002804</v>
+        <v>0.7533033950321358</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8319823033363858</v>
+        <v>0.8347662901313476</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>336</v>
@@ -2808,19 +2808,19 @@
         <v>342169</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>325514</v>
+        <v>322701</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>359848</v>
+        <v>357687</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7981262713462295</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7592777085410719</v>
+        <v>0.7527172998517883</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8393646082592839</v>
+        <v>0.8343230300263046</v>
       </c>
     </row>
     <row r="35">
@@ -2850,19 +2850,19 @@
         <v>31144</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>21813</v>
+        <v>21614</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>44751</v>
+        <v>44513</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07326827554994653</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05131654425289735</v>
+        <v>0.05084701867911935</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1052791300072507</v>
+        <v>0.1047193086195703</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -2871,19 +2871,19 @@
         <v>31144</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20899</v>
+        <v>21338</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44480</v>
+        <v>44507</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07264533958685093</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0487476981447709</v>
+        <v>0.04977210581962181</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1037530111797434</v>
+        <v>0.1038143568091789</v>
       </c>
     </row>
     <row r="36">
@@ -2913,19 +2913,19 @@
         <v>34743</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>24699</v>
+        <v>23829</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>47659</v>
+        <v>47509</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08173589636683146</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05810583730798355</v>
+        <v>0.05605880677691062</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1121213326462772</v>
+        <v>0.1117677018709223</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>31</v>
@@ -2934,19 +2934,19 @@
         <v>34743</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>23962</v>
+        <v>24269</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47640</v>
+        <v>48891</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08104096764166931</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05589236784002855</v>
+        <v>0.056608804110162</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1111224787721778</v>
+        <v>0.1140402645955838</v>
       </c>
     </row>
     <row r="37">
@@ -2976,19 +2976,19 @@
         <v>17437</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10180</v>
+        <v>9856</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27724</v>
+        <v>27462</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04102078057495458</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02394999705478176</v>
+        <v>0.02318613749956429</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0652219829226223</v>
+        <v>0.06460645577389676</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -2997,19 +2997,19 @@
         <v>17437</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10187</v>
+        <v>10635</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27143</v>
+        <v>27625</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04067201681243129</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02376059939897283</v>
+        <v>0.02480718929537465</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0633121486391983</v>
+        <v>0.0644358657597818</v>
       </c>
     </row>
     <row r="38">
@@ -3039,19 +3039,19 @@
         <v>3222</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9037</v>
+        <v>9103</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.007579849432502749</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002109736328484372</v>
+        <v>0.002102586600366191</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02126027084648463</v>
+        <v>0.02141595562407727</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -3060,19 +3060,19 @@
         <v>3222</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8655</v>
+        <v>9051</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.007515404612818998</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002074773920561749</v>
+        <v>0.002078721957857135</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02018787276787013</v>
+        <v>0.02111094772618205</v>
       </c>
     </row>
     <row r="39">
@@ -3164,19 +3164,19 @@
         <v>434537</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>418199</v>
+        <v>418578</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>447883</v>
+        <v>447266</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.86638612729807</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8338120260115098</v>
+        <v>0.8345679094324377</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8929951862228768</v>
+        <v>0.8917654610176787</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>534</v>
@@ -3185,19 +3185,19 @@
         <v>538939</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>984</v>
@@ -3206,19 +3206,19 @@
         <v>973476</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>948275</v>
+        <v>946371</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>998663</v>
+        <v>997997</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.8261043354894384</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8047190635359655</v>
+        <v>0.8031030123747197</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8474787152573879</v>
+        <v>0.8469135964739153</v>
       </c>
     </row>
     <row r="41">
@@ -3235,19 +3235,19 @@
         <v>27113</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18660</v>
+        <v>18798</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>38809</v>
+        <v>38992</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05405922658092131</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03720442144289572</v>
+        <v>0.03747979172175107</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07737710927578037</v>
+        <v>0.07774272682735711</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -3256,19 +3256,19 @@
         <v>46808</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>34776</v>
+        <v>34970</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>61978</v>
+        <v>61466</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06915683933968085</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05137956607411982</v>
+        <v>0.05166710105279717</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09156890637756268</v>
+        <v>0.09081325224470954</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>73</v>
@@ -3277,19 +3277,19 @@
         <v>73922</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>58972</v>
+        <v>56204</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>92650</v>
+        <v>89875</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06273095087477611</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05004448257436265</v>
+        <v>0.04769571566726927</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07862405687170319</v>
+        <v>0.07626912383962985</v>
       </c>
     </row>
     <row r="42">
@@ -3306,19 +3306,19 @@
         <v>27999</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18852</v>
+        <v>19395</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>39537</v>
+        <v>40238</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05582468150230215</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03758653924110496</v>
+        <v>0.03867045668174809</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0788291831559189</v>
+        <v>0.08022627745229655</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>54</v>
@@ -3327,19 +3327,19 @@
         <v>60285</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>46886</v>
+        <v>47001</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>78741</v>
+        <v>76922</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08906871208952903</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06927097614682147</v>
+        <v>0.06944139620786875</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1163357313707864</v>
+        <v>0.1136486008506902</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>84</v>
@@ -3348,19 +3348,19 @@
         <v>88284</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>71441</v>
+        <v>71374</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>105184</v>
+        <v>108285</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07491929415897179</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06062608045512639</v>
+        <v>0.06056928898508614</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08926084308928266</v>
+        <v>0.09189208197844043</v>
       </c>
     </row>
     <row r="43">
@@ -3377,19 +3377,19 @@
         <v>11063</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6245</v>
+        <v>6280</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19680</v>
+        <v>18771</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02205834108007186</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01245181570729917</v>
+        <v>0.01252033287048452</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0392387273920158</v>
+        <v>0.03742495873702959</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3398,19 +3398,19 @@
         <v>26446</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>17639</v>
+        <v>18312</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>38472</v>
+        <v>39238</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0390733023749504</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02606024990527614</v>
+        <v>0.02705570681607219</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05683999075486417</v>
+        <v>0.05797162689149164</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>36</v>
@@ -3419,19 +3419,19 @@
         <v>37510</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>26799</v>
+        <v>26565</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>51419</v>
+        <v>50607</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03183134662587844</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02274169897476839</v>
+        <v>0.02254369796935502</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04363521489916489</v>
+        <v>0.04294614854853683</v>
       </c>
     </row>
     <row r="44">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>4849</v>
+        <v>4236</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001671623538634679</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.009668018228167572</v>
+        <v>0.008444808103215967</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -3469,19 +3469,19 @@
         <v>4363</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6</v>
@@ -3490,19 +3490,19 @@
         <v>5202</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1970</v>
+        <v>1816</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11245</v>
+        <v>12178</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004414072850935245</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001672072637913467</v>
+        <v>0.001541388548287708</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.009542720375826494</v>
+        <v>0.01033483542784745</v>
       </c>
     </row>
     <row r="45">
@@ -3836,19 +3836,19 @@
         <v>38654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31851</v>
+        <v>31361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42789</v>
+        <v>42806</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8801315436210122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7252446955057787</v>
+        <v>0.7140738837109973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9742859186059606</v>
+        <v>0.9746824937251399</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3857,19 +3857,19 @@
         <v>22028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16454</v>
+        <v>16931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24268</v>
+        <v>24282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8710512150556433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6506516592210151</v>
+        <v>0.669519255198077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.959613411003704</v>
+        <v>0.9601777032494719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -3878,19 +3878,19 @@
         <v>60682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53198</v>
+        <v>53585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65967</v>
+        <v>65944</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8768134709546997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7686727995724291</v>
+        <v>0.7742705500783778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.953188847809977</v>
+        <v>0.9528455209206914</v>
       </c>
     </row>
     <row r="5">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6416</v>
+        <v>7057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04618297812392481</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1460830241959264</v>
+        <v>0.1606771987493614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5983</v>
+        <v>6538</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04384370916020244</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2366044431874564</v>
+        <v>0.2585309000879957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3949,19 +3949,19 @@
         <v>3137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>939</v>
+        <v>988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8637</v>
+        <v>8410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04532817817348216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01356545359661764</v>
+        <v>0.01426927232764147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.124792458806348</v>
+        <v>0.1215196865235962</v>
       </c>
     </row>
     <row r="6">
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9593</v>
+        <v>10967</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07368547825506301</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.218439340273848</v>
+        <v>0.2497076677204092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4020,19 +4020,19 @@
         <v>4289</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1011</v>
+        <v>1050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10582</v>
+        <v>12826</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06197019229741787</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01461222892613359</v>
+        <v>0.01516668697705056</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1529016017267333</v>
+        <v>0.1853345946344371</v>
       </c>
     </row>
     <row r="7">
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="8">
@@ -4234,19 +4234,19 @@
         <v>53078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45724</v>
+        <v>44783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58196</v>
+        <v>57547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8754372345264191</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.754140518894204</v>
+        <v>0.7386356572241819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9598571704737502</v>
+        <v>0.9491506123890141</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4255,19 +4255,19 @@
         <v>12727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7989</v>
+        <v>7791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16793</v>
+        <v>16866</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6733122133408249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4226529351030167</v>
+        <v>0.4121900745540986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8884029653872405</v>
+        <v>0.8922602283319084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -4276,19 +4276,19 @@
         <v>65804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57013</v>
+        <v>56384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72351</v>
+        <v>71580</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8273997866109561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7168690443783369</v>
+        <v>0.7089583238596632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9097269187535275</v>
+        <v>0.9000264866533215</v>
       </c>
     </row>
     <row r="11">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7191</v>
+        <v>6239</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03302730746933857</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1186015248647547</v>
+        <v>0.1029014296087766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -4326,19 +4326,19 @@
         <v>2853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7019</v>
+        <v>7209</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1509452500400612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04567347107033713</v>
+        <v>0.04693408930702798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.371329160770463</v>
+        <v>0.3813639060470175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4347,19 +4347,19 @@
         <v>4856</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10522</v>
+        <v>10886</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06105192802998865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02361108326796144</v>
+        <v>0.02359298285639865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1323002365440828</v>
+        <v>0.1368746355758721</v>
       </c>
     </row>
     <row r="12">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11311</v>
+        <v>13455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05420354534197828</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1865560261778102</v>
+        <v>0.221927051574896</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11908</v>
+        <v>14878</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04132141936407736</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1497265990563177</v>
+        <v>0.187074044627382</v>
       </c>
     </row>
     <row r="13">
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4460,19 +4460,19 @@
         <v>3322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -4481,19 +4481,19 @@
         <v>5585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2177</v>
+        <v>2081</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12246</v>
+        <v>11463</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07022686599497784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02737246520835758</v>
+        <v>0.02616325173084573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1539794742405514</v>
+        <v>0.1441377787597596</v>
       </c>
     </row>
     <row r="14">
@@ -4632,19 +4632,19 @@
         <v>103918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93978</v>
+        <v>93029</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110403</v>
+        <v>110332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8758137951591304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.79204201340655</v>
+        <v>0.7840462614585429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9304698850661857</v>
+        <v>0.9298751867272578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -4653,19 +4653,19 @@
         <v>40050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32711</v>
+        <v>32240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46313</v>
+        <v>46126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7333207154504968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5989310731592155</v>
+        <v>0.590316372381535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.847986924392709</v>
+        <v>0.8445742894692563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -4674,19 +4674,19 @@
         <v>143968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132117</v>
+        <v>132103</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152754</v>
+        <v>153455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8308996049758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7625018211019381</v>
+        <v>0.7624206480255237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8816051664987548</v>
+        <v>0.8856482697047381</v>
       </c>
     </row>
     <row r="17">
@@ -4703,19 +4703,19 @@
         <v>4417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12859</v>
+        <v>12284</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03722629053147881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008973975941388218</v>
+        <v>0.008945387601281531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1083754876610492</v>
+        <v>0.1035252435276444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4724,19 +4724,19 @@
         <v>2985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7116</v>
+        <v>7401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05465319597444895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.016838106863688</v>
+        <v>0.01697932378938795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.130295614028607</v>
+        <v>0.1355186805880604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4745,19 +4745,19 @@
         <v>7402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3083</v>
+        <v>2998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16680</v>
+        <v>16648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04271929655656406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01779155885979286</v>
+        <v>0.01730527110780246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09626487975870265</v>
+        <v>0.09608148022474157</v>
       </c>
     </row>
     <row r="18">
@@ -4774,19 +4774,19 @@
         <v>6293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2046</v>
+        <v>2080</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14690</v>
+        <v>15157</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05303660052726788</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01724680620456897</v>
+        <v>0.01753375332472285</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1238094674408635</v>
+        <v>0.1277422001210388</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4795,19 +4795,19 @@
         <v>11580</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6271</v>
+        <v>6305</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18155</v>
+        <v>19110</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2120260885750543</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1148174582704201</v>
+        <v>0.1154391792900558</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3324140085215712</v>
+        <v>0.3499000075362579</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -4816,19 +4816,19 @@
         <v>17873</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11034</v>
+        <v>10935</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28428</v>
+        <v>27519</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1031505016228869</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06367943142410228</v>
+        <v>0.06311220236350433</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1640722032323285</v>
+        <v>0.158824665561742</v>
       </c>
     </row>
     <row r="19">
@@ -4845,19 +4845,19 @@
         <v>3033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8979</v>
+        <v>8181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02556185280602477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007886430392404121</v>
+        <v>0.007985467799791304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07567757728765825</v>
+        <v>0.06895012857707027</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4879,19 +4879,19 @@
         <v>3033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8276</v>
+        <v>8111</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01750469016545527</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00549619425923809</v>
+        <v>0.00549997605663085</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.047766416066846</v>
+        <v>0.04681173407747304</v>
       </c>
     </row>
     <row r="20">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5118</v>
+        <v>5018</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005725906679293886</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02953682905011073</v>
+        <v>0.02896324564555674</v>
       </c>
     </row>
     <row r="21">
@@ -5046,19 +5046,19 @@
         <v>175134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158892</v>
+        <v>158700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188061</v>
+        <v>188277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7556914336775354</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6856078181047314</v>
+        <v>0.68478042280324</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.811472648668745</v>
+        <v>0.812404954952002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -5067,19 +5067,19 @@
         <v>39175</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31281</v>
+        <v>31420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46462</v>
+        <v>46630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6518907066965935</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5205318233036431</v>
+        <v>0.5228444395855606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7731502579488543</v>
+        <v>0.7759417602582348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>203</v>
@@ -5088,19 +5088,19 @@
         <v>214309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>197868</v>
+        <v>197298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229756</v>
+        <v>228321</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7343175466438842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6779837786239007</v>
+        <v>0.6760292697031198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7872468596929877</v>
+        <v>0.782327002057531</v>
       </c>
     </row>
     <row r="23">
@@ -5117,19 +5117,19 @@
         <v>8120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3890</v>
+        <v>3721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14792</v>
+        <v>15399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03503913130114857</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0167838591886577</v>
+        <v>0.01605614213464066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06382473859544323</v>
+        <v>0.06644745635318326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -5138,19 +5138,19 @@
         <v>6936</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3091</v>
+        <v>2706</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14230</v>
+        <v>14051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1154100985063975</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05143066485176148</v>
+        <v>0.04503671800791406</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2367991070148885</v>
+        <v>0.2338136837238799</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -5159,19 +5159,19 @@
         <v>15056</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8773</v>
+        <v>8948</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23812</v>
+        <v>24890</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05158853344691277</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03006015780219152</v>
+        <v>0.03065846047784377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0815889436860386</v>
+        <v>0.08528574676617097</v>
       </c>
     </row>
     <row r="24">
@@ -5188,19 +5188,19 @@
         <v>31390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21587</v>
+        <v>21555</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43463</v>
+        <v>44206</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1354457969299998</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09314446513515162</v>
+        <v>0.09300875552884778</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1875411269594691</v>
+        <v>0.1907476549946243</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -5209,19 +5209,19 @@
         <v>12998</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7429</v>
+        <v>6763</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20009</v>
+        <v>20541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.216298049989855</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.123616990178226</v>
+        <v>0.112544981028559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.332948281672676</v>
+        <v>0.3418121260599565</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -5230,19 +5230,19 @@
         <v>44388</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33640</v>
+        <v>33060</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58612</v>
+        <v>59700</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1520943019412876</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1152644813360411</v>
+        <v>0.1132773494170265</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2008288770861178</v>
+        <v>0.2045570963300293</v>
       </c>
     </row>
     <row r="25">
@@ -5259,19 +5259,19 @@
         <v>13986</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7316</v>
+        <v>7510</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24729</v>
+        <v>25367</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06034764232421986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03156718049843506</v>
+        <v>0.03240451787818074</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1067058505353536</v>
+        <v>0.1094556687454474</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4109</v>
+        <v>5044</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01640114480715393</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06837105515965627</v>
+        <v>0.08392889185466204</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -5301,19 +5301,19 @@
         <v>14971</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7644</v>
+        <v>7550</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25299</v>
+        <v>24484</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05129850075484662</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02619150881880253</v>
+        <v>0.02587114140470366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08668560592558554</v>
+        <v>0.08389440385879861</v>
       </c>
     </row>
     <row r="26">
@@ -5330,19 +5330,19 @@
         <v>3123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9278</v>
+        <v>7430</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01347599576709631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004291309105479653</v>
+        <v>0.004271509537672442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0400349821710367</v>
+        <v>0.03205886045922827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5364,19 +5364,19 @@
         <v>3123</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8328</v>
+        <v>8511</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01070111721306881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003386076675133122</v>
+        <v>0.00339344422912623</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02853498035048575</v>
+        <v>0.02916134615478454</v>
       </c>
     </row>
     <row r="27">
@@ -5468,19 +5468,19 @@
         <v>81480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72892</v>
+        <v>72499</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88785</v>
+        <v>89039</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7934067645815114</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7097871470664397</v>
+        <v>0.7059599543571931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8645398529770312</v>
+        <v>0.8670182180051429</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>110</v>
@@ -5489,19 +5489,19 @@
         <v>115671</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101688</v>
+        <v>101332</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>129419</v>
+        <v>129163</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.613963983678566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5397441574968013</v>
+        <v>0.5378530702847425</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.686936740085365</v>
+        <v>0.6855789436373733</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>186</v>
@@ -5510,19 +5510,19 @@
         <v>197150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>180872</v>
+        <v>181002</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>213641</v>
+        <v>213227</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6772695734495939</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6213495504618426</v>
+        <v>0.6217951611455387</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7339201231084798</v>
+        <v>0.7324969026498325</v>
       </c>
     </row>
     <row r="29">
@@ -5539,19 +5539,19 @@
         <v>5284</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2067</v>
+        <v>1954</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10994</v>
+        <v>12018</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05145223310053208</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02012659998980253</v>
+        <v>0.0190231733389458</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1070546060586157</v>
+        <v>0.1170297003053794</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5560,19 +5560,19 @@
         <v>8641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4110</v>
+        <v>4272</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15874</v>
+        <v>16720</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04586608373076036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02181433423356905</v>
+        <v>0.02267579459891513</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0842555243076633</v>
+        <v>0.08874793579746354</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -5581,19 +5581,19 @@
         <v>13925</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7509</v>
+        <v>7462</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23433</v>
+        <v>22233</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04783682046713385</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02579678840688969</v>
+        <v>0.02563267997865327</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08049810379749643</v>
+        <v>0.07637799601621612</v>
       </c>
     </row>
     <row r="30">
@@ -5610,19 +5610,19 @@
         <v>11775</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6390</v>
+        <v>6293</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19370</v>
+        <v>19660</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1146550779706348</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06222700950185715</v>
+        <v>0.06127400642360399</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.188611395955232</v>
+        <v>0.1914400201261849</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>35</v>
@@ -5631,19 +5631,19 @@
         <v>37950</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27863</v>
+        <v>26937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50223</v>
+        <v>49532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2014328669085672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.147893189523575</v>
+        <v>0.1429796270938468</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2665740482038322</v>
+        <v>0.2629064058356115</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -5652,19 +5652,19 @@
         <v>49725</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37800</v>
+        <v>38385</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64378</v>
+        <v>65199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1708185447268749</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1298544888975146</v>
+        <v>0.1318647627717756</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2211557944156848</v>
+        <v>0.2239774064045368</v>
       </c>
     </row>
     <row r="31">
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6531</v>
+        <v>6445</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02071913324242507</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06359179829955997</v>
+        <v>0.06275718165890062</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -5702,19 +5702,19 @@
         <v>20586</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12924</v>
+        <v>13225</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30840</v>
+        <v>30678</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1092654164285878</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06859689788033467</v>
+        <v>0.07019778285842802</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.163694790570774</v>
+        <v>0.1628337355469648</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -5723,19 +5723,19 @@
         <v>22713</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14887</v>
+        <v>14324</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33126</v>
+        <v>34230</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07802718744592228</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05113960798011743</v>
+        <v>0.04920558624666659</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1137973155320367</v>
+        <v>0.1175912867442247</v>
       </c>
     </row>
     <row r="32">
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5773,19 +5773,19 @@
         <v>5552</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13384</v>
+        <v>12304</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02947164925351876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01105112051303606</v>
+        <v>0.01098650585408181</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07104153937943747</v>
+        <v>0.06530818379383985</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -5794,19 +5794,19 @@
         <v>7582</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3563</v>
+        <v>3109</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15649</v>
+        <v>14870</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02604787391047509</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01223957997409148</v>
+        <v>0.01067956420373871</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05376047826374485</v>
+        <v>0.0510830252168363</v>
       </c>
     </row>
     <row r="33">
@@ -5911,19 +5911,19 @@
         <v>278934</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>260135</v>
+        <v>260026</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>296664</v>
+        <v>295527</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7066909315195454</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.659062728599905</v>
+        <v>0.6587883123044825</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7516116945829523</v>
+        <v>0.7487318839719546</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>264</v>
@@ -5932,19 +5932,19 @@
         <v>280922</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>260668</v>
+        <v>260984</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>297384</v>
+        <v>298832</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7081606300112393</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6571041649725993</v>
+        <v>0.6579009107265448</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7496590685906624</v>
+        <v>0.7533093503479811</v>
       </c>
     </row>
     <row r="35">
@@ -5974,19 +5974,19 @@
         <v>19416</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11627</v>
+        <v>12477</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>29124</v>
+        <v>30116</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04919237411126358</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02945721228754285</v>
+        <v>0.03161006670787504</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07378706659096787</v>
+        <v>0.07630040057692131</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>19</v>
@@ -5995,19 +5995,19 @@
         <v>19416</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11958</v>
+        <v>12745</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30135</v>
+        <v>29051</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04894588340980413</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03014528523666218</v>
+        <v>0.03212725698708434</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07596533717431547</v>
+        <v>0.07323299838777853</v>
       </c>
     </row>
     <row r="36">
@@ -6037,19 +6037,19 @@
         <v>69432</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>54949</v>
+        <v>55827</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>85637</v>
+        <v>87027</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1759100867804291</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1392155298570124</v>
+        <v>0.1414401206627798</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2169658302216646</v>
+        <v>0.2204874154719985</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>63</v>
@@ -6058,19 +6058,19 @@
         <v>69432</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>56178</v>
+        <v>56398</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>85885</v>
+        <v>89607</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1750286452670306</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1416157368060996</v>
+        <v>0.1421718911487431</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2165041441282977</v>
+        <v>0.2258848508066353</v>
       </c>
     </row>
     <row r="37">
@@ -6100,19 +6100,19 @@
         <v>17291</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10573</v>
+        <v>10461</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27114</v>
+        <v>27829</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04380697041802844</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02678641757045084</v>
+        <v>0.02650380469655292</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06869481083037547</v>
+        <v>0.07050625607634273</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -6121,19 +6121,19 @@
         <v>17291</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10704</v>
+        <v>9813</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27422</v>
+        <v>26620</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04358746462953508</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02698357855717518</v>
+        <v>0.02473619953255239</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06912755894933502</v>
+        <v>0.06710470134327091</v>
       </c>
     </row>
     <row r="38">
@@ -6163,19 +6163,19 @@
         <v>9631</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4263</v>
+        <v>4318</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18674</v>
+        <v>19209</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02439963717073346</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01079948440546871</v>
+        <v>0.01093978775162459</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04731134995688771</v>
+        <v>0.04866726235177489</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -6184,19 +6184,19 @@
         <v>9631</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4468</v>
+        <v>4265</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18749</v>
+        <v>18944</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02427737668239096</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01126194202088266</v>
+        <v>0.01075261218453558</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04726291470644815</v>
+        <v>0.04775472612519902</v>
       </c>
     </row>
     <row r="39">
@@ -6288,19 +6288,19 @@
         <v>454250</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>478</v>
@@ -6309,19 +6309,19 @@
         <v>508585</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>481892</v>
+        <v>480690</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>536125</v>
+        <v>533568</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6854201294020771</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6494451929574647</v>
+        <v>0.6478259070258409</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7225355999686207</v>
+        <v>0.7190889845105057</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>890</v>
@@ -6330,19 +6330,19 @@
         <v>962835</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>930370</v>
+        <v>928049</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>994781</v>
+        <v>994277</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.7397080459972381</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.7147667732492836</v>
+        <v>0.7129834117476094</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7642508316355935</v>
+        <v>0.7638639419505571</v>
       </c>
     </row>
     <row r="41">
@@ -6359,19 +6359,19 @@
         <v>21852</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14300</v>
+        <v>13687</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>33434</v>
+        <v>34370</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03904682886480369</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02555315523095675</v>
+        <v>0.02445728493302027</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05974174279534377</v>
+        <v>0.06141395932756818</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>40</v>
@@ -6380,19 +6380,19 @@
         <v>41940</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30410</v>
+        <v>30625</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>55605</v>
+        <v>56225</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05652245939407815</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04098396786253116</v>
+        <v>0.04127380830404206</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07493935033762314</v>
+        <v>0.0757739490432193</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>60</v>
@@ -6401,19 +6401,19 @@
         <v>63792</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>49773</v>
+        <v>49839</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>80631</v>
+        <v>82298</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04900886506576509</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03823863246799088</v>
+        <v>0.03828964115693194</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06194556512469598</v>
+        <v>0.06322634215609614</v>
       </c>
     </row>
     <row r="42">
@@ -6430,19 +6430,19 @@
         <v>55980</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>41530</v>
+        <v>41795</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>73005</v>
+        <v>73249</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1000290294459607</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07420836067512829</v>
+        <v>0.07468238846266514</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1304502373104656</v>
+        <v>0.1308861881630025</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>122</v>
@@ -6451,19 +6451,19 @@
         <v>133013</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>112107</v>
+        <v>112848</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>154159</v>
+        <v>156979</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1792620488208335</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1510870081888865</v>
+        <v>0.1520848738458983</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2077603644123225</v>
+        <v>0.2115610548878164</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>170</v>
@@ -6472,19 +6472,19 @@
         <v>188993</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>162248</v>
+        <v>162465</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>213803</v>
+        <v>219548</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.14519605251856</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1246484267953739</v>
+        <v>0.1248154199642185</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.164256276671818</v>
+        <v>0.1686702142383571</v>
       </c>
     </row>
     <row r="43">
@@ -6501,19 +6501,19 @@
         <v>21410</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12885</v>
+        <v>13972</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>32684</v>
+        <v>33963</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03825681400497788</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02302377361791773</v>
+        <v>0.02496541149533754</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05840193003313054</v>
+        <v>0.06068756234840529</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>40</v>
@@ -6522,19 +6522,19 @@
         <v>43283</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>31539</v>
+        <v>31671</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>57303</v>
+        <v>56681</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05833308629616039</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04250512382247569</v>
+        <v>0.04268321431862066</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07722660621722555</v>
+        <v>0.07638958684802954</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>58</v>
@@ -6543,19 +6543,19 @@
         <v>64693</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>51224</v>
+        <v>50731</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>83522</v>
+        <v>82964</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04970135393216882</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0393535530131989</v>
+        <v>0.03897469197795071</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06416699852380542</v>
+        <v>0.06373767308136098</v>
       </c>
     </row>
     <row r="44">
@@ -6572,19 +6572,19 @@
         <v>6145</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12228</v>
+        <v>12259</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01098065644266323</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003700798378189226</v>
+        <v>0.00378529663292644</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02184997904208417</v>
+        <v>0.02190457816595526</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -6593,19 +6593,19 @@
         <v>15183</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>8645</v>
+        <v>8577</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>25423</v>
+        <v>25573</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02046227608685081</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01165135279589096</v>
+        <v>0.01155918669036419</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03426300947770639</v>
+        <v>0.0344645970482293</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>19</v>
@@ -6614,19 +6614,19 @@
         <v>21328</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>13438</v>
+        <v>13041</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>33756</v>
+        <v>32280</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01638568248626802</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01032363612286249</v>
+        <v>0.01001883014912061</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02593364973363116</v>
+        <v>0.02479981483348106</v>
       </c>
     </row>
     <row r="45">
@@ -6960,19 +6960,19 @@
         <v>60237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52820</v>
+        <v>52503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65332</v>
+        <v>65054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8774922147018129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.769441801513846</v>
+        <v>0.7648280474474179</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9517094349739061</v>
+        <v>0.9476561870755613</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6981,19 +6981,19 @@
         <v>28555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21932</v>
+        <v>22269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33368</v>
+        <v>33290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7740931544862818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5945462409788388</v>
+        <v>0.6036917458273342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9045768305884109</v>
+        <v>0.9024690754644676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -7002,19 +7002,19 @@
         <v>88792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79560</v>
+        <v>79527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96163</v>
+        <v>95915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.841350597028968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7538739531101243</v>
+        <v>0.7535612016936272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9111912232386672</v>
+        <v>0.9088482605051386</v>
       </c>
     </row>
     <row r="5">
@@ -7031,19 +7031,19 @@
         <v>5228</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1028</v>
+        <v>1537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12561</v>
+        <v>12405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0761590971030347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01497072735845389</v>
+        <v>0.02238440114865202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1829753950762071</v>
+        <v>0.180709426952386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7052,19 +7052,19 @@
         <v>5747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2044</v>
+        <v>2089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11889</v>
+        <v>11198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1557875551448726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05541897334682083</v>
+        <v>0.0566431500546668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3222975796798916</v>
+        <v>0.3035739665226919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -7073,19 +7073,19 @@
         <v>10975</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5244</v>
+        <v>5435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19076</v>
+        <v>19589</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1039920511011408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04969062977257412</v>
+        <v>0.05149589487059748</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1807584739246152</v>
+        <v>0.1856146506849264</v>
       </c>
     </row>
     <row r="6">
@@ -7102,19 +7102,19 @@
         <v>3182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8299</v>
+        <v>9210</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04634868819515233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01080859992663492</v>
+        <v>0.01093527523283328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1208923639022593</v>
+        <v>0.1341684255646858</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03282329730341099</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.166110032176136</v>
+        <v>0.1799428381870455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -7144,19 +7144,19 @@
         <v>4392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1348</v>
+        <v>1197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11092</v>
+        <v>10677</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04162108713701747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01277008795585012</v>
+        <v>0.01134434708994588</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1050995397002544</v>
+        <v>0.101171008587215</v>
       </c>
     </row>
     <row r="7">
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="8">
@@ -7358,19 +7358,19 @@
         <v>45280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39534</v>
+        <v>39175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49323</v>
+        <v>49126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8488351515400449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7411089812943209</v>
+        <v>0.7343755002259369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9246158052840246</v>
+        <v>0.920926882585446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7379,19 +7379,19 @@
         <v>9432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4540</v>
+        <v>4439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13728</v>
+        <v>14022</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5362712010651275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2581397655981589</v>
+        <v>0.2523724128918306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7805222995156154</v>
+        <v>0.7972695725204167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -7400,19 +7400,19 @@
         <v>54712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45843</v>
+        <v>47224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60901</v>
+        <v>61702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7713324971633604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6462897555773807</v>
+        <v>0.6657712563916688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8585880169945722</v>
+        <v>0.8698727325043882</v>
       </c>
     </row>
     <row r="11">
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4147</v>
+        <v>4310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01547912159445737</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07773492200370916</v>
+        <v>0.08079876017951305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -7450,19 +7450,19 @@
         <v>3411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>973</v>
+        <v>1010</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7902</v>
+        <v>8073</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1939350513338551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05531177564620245</v>
+        <v>0.05743495958431901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4492975526735037</v>
+        <v>0.4590222368235802</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -7471,19 +7471,19 @@
         <v>4237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1137</v>
+        <v>1164</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9917</v>
+        <v>9560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05972865268416732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01603220275872388</v>
+        <v>0.01641436114323409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1398135125897194</v>
+        <v>0.1347816796537676</v>
       </c>
     </row>
     <row r="12">
@@ -7500,19 +7500,19 @@
         <v>2386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5983</v>
+        <v>6990</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04472806897262989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01325039875645868</v>
+        <v>0.01379890772612097</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.112153860394298</v>
+        <v>0.1310443798730068</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -7521,19 +7521,19 @@
         <v>4745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10430</v>
+        <v>10075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2697937476010174</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07564671401827422</v>
+        <v>0.07631627142217731</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5930019632234514</v>
+        <v>0.5728447858337103</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -7542,19 +7542,19 @@
         <v>7131</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2914</v>
+        <v>2848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15995</v>
+        <v>14950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1005348485973634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04107530388073852</v>
+        <v>0.04014802591902502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2254994283339332</v>
+        <v>0.2107600304769122</v>
       </c>
     </row>
     <row r="13">
@@ -7571,19 +7571,19 @@
         <v>3940</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9785</v>
+        <v>8981</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07386400526556369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01919487733527231</v>
+        <v>0.01900142282785661</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.183425715719598</v>
+        <v>0.1683625539791116</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -7605,19 +7605,19 @@
         <v>3940</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9147</v>
+        <v>9841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0555488525991209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01429214975585589</v>
+        <v>0.0144506450748777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1289522858700599</v>
+        <v>0.1387358233516409</v>
       </c>
     </row>
     <row r="14">
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3833</v>
+        <v>4656</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01709365262730424</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0718568759960312</v>
+        <v>0.08728094214505915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3888</v>
+        <v>5185</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01285514895598794</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05481197258294829</v>
+        <v>0.07309532540556307</v>
       </c>
     </row>
     <row r="15">
@@ -7772,19 +7772,19 @@
         <v>105272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96874</v>
+        <v>98088</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111403</v>
+        <v>110973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8753590579899377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8055301969821849</v>
+        <v>0.8156292254279894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9263457365438579</v>
+        <v>0.9227689850568396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -7793,19 +7793,19 @@
         <v>34783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27195</v>
+        <v>27163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40590</v>
+        <v>40498</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7527365127016461</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5885170505036169</v>
+        <v>0.5878369058767805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.878394144676287</v>
+        <v>0.8764171713820815</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -7814,19 +7814,19 @@
         <v>140055</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129548</v>
+        <v>129105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148423</v>
+        <v>147802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8413213903054875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7782051251276563</v>
+        <v>0.7755451829530637</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8915904302619537</v>
+        <v>0.8878584885539682</v>
       </c>
     </row>
     <row r="17">
@@ -7843,19 +7843,19 @@
         <v>3746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8926</v>
+        <v>9234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03114802464559406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007133756001780129</v>
+        <v>0.007184713611818787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07422078249307261</v>
+        <v>0.07678358304977843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7864,19 +7864,19 @@
         <v>4157</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10634</v>
+        <v>11445</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08995778649563456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02074579246803379</v>
+        <v>0.02049537058523542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2301253533535858</v>
+        <v>0.2476835764314058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7885,19 +7885,19 @@
         <v>7903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3565</v>
+        <v>3800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16141</v>
+        <v>16799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0474724870496906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02141796243339209</v>
+        <v>0.02282885911402838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09695818624022491</v>
+        <v>0.1009129893535623</v>
       </c>
     </row>
     <row r="18">
@@ -7914,19 +7914,19 @@
         <v>8317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4101</v>
+        <v>4276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14210</v>
+        <v>14618</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06915650480538348</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03409884955177729</v>
+        <v>0.03555192517539686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.118159068616996</v>
+        <v>0.1215547141988274</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -7935,19 +7935,19 @@
         <v>6082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2212</v>
+        <v>2424</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12049</v>
+        <v>13048</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1316135153351319</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04785999340744593</v>
+        <v>0.05246595637540795</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2607530441014478</v>
+        <v>0.2823713158781491</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -7956,19 +7956,19 @@
         <v>14399</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8714</v>
+        <v>8666</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22988</v>
+        <v>22672</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08649337351886284</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05234335416658071</v>
+        <v>0.05205906683488198</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1380908307733988</v>
+        <v>0.1361924262888757</v>
       </c>
     </row>
     <row r="19">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6733</v>
+        <v>7865</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01691682238986826</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05598755498661388</v>
+        <v>0.06539967447431561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -8027,19 +8027,19 @@
         <v>3222</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8178</v>
+        <v>8561</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01935269494126212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004673031805520706</v>
+        <v>0.004681337998012515</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04912613326557858</v>
+        <v>0.05142642424692995</v>
       </c>
     </row>
     <row r="20">
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4527</v>
+        <v>4662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007419590169216484</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03764191152886145</v>
+        <v>0.03876771360308678</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4491</v>
+        <v>5395</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005360054184697013</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02697575131453833</v>
+        <v>0.03240692223119501</v>
       </c>
     </row>
     <row r="21">
@@ -8194,19 +8194,19 @@
         <v>168840</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158277</v>
+        <v>158152</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177986</v>
+        <v>178273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8282331142105437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7764166024358479</v>
+        <v>0.7758045301965055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8730982619881463</v>
+        <v>0.8745047806158247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -8215,19 +8215,19 @@
         <v>72419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61749</v>
+        <v>61164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81431</v>
+        <v>80825</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7311693501384339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6234354839205707</v>
+        <v>0.6175349707038079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.822150833750078</v>
+        <v>0.8160368611594604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -8236,19 +8236,19 @@
         <v>241260</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225913</v>
+        <v>226434</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>254271</v>
+        <v>255465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.796494186739689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7458274499611323</v>
+        <v>0.7475496107693881</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8394506298415549</v>
+        <v>0.8433907274651298</v>
       </c>
     </row>
     <row r="23">
@@ -8265,19 +8265,19 @@
         <v>14012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8179</v>
+        <v>8370</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21599</v>
+        <v>21739</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0687328314306689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04012190532252692</v>
+        <v>0.04105601148662649</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1059515107918112</v>
+        <v>0.1066395154271928</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -8286,19 +8286,19 @@
         <v>5867</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2269</v>
+        <v>2184</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12492</v>
+        <v>12736</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05923408606527705</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02290457875756646</v>
+        <v>0.02205029970645761</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.126126061273363</v>
+        <v>0.1285850837517493</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -8307,19 +8307,19 @@
         <v>19878</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12594</v>
+        <v>12538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28312</v>
+        <v>30222</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06562683205903608</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0415783380120535</v>
+        <v>0.04139348782797957</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09347015868218841</v>
+        <v>0.09977512833498262</v>
       </c>
     </row>
     <row r="24">
@@ -8336,19 +8336,19 @@
         <v>9329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4675</v>
+        <v>4234</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15943</v>
+        <v>16388</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04576221773594935</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02293410121397208</v>
+        <v>0.02076805433655588</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0782091237071688</v>
+        <v>0.08038953328974115</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -8357,19 +8357,19 @@
         <v>15799</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8623</v>
+        <v>8794</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25625</v>
+        <v>27363</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1595084433105255</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08706403770045269</v>
+        <v>0.08878340744778107</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2587155139497418</v>
+        <v>0.2762644121570195</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -8378,19 +8378,19 @@
         <v>25128</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15662</v>
+        <v>15221</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37320</v>
+        <v>36954</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08295615141559634</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05170769396261476</v>
+        <v>0.05024913892773981</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1232075197601835</v>
+        <v>0.1219993125988677</v>
       </c>
     </row>
     <row r="25">
@@ -8407,19 +8407,19 @@
         <v>10849</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6520</v>
+        <v>6260</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18759</v>
+        <v>18080</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05322134571663233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0319845681281732</v>
+        <v>0.03070641700888041</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09201874665501655</v>
+        <v>0.08868876519919995</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -8428,19 +8428,19 @@
         <v>4961</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1337</v>
+        <v>1290</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12391</v>
+        <v>11191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05008812048576365</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01349786114604084</v>
+        <v>0.01302770643176472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1251009824629291</v>
+        <v>0.1129900722089215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -8449,19 +8449,19 @@
         <v>15811</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9303</v>
+        <v>9896</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25033</v>
+        <v>24938</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05219681087293398</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03071197321336284</v>
+        <v>0.03267007923054648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08264378969479189</v>
+        <v>0.08232908502654003</v>
       </c>
     </row>
     <row r="26">
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5575</v>
+        <v>4135</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004050490906205739</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02734642159635686</v>
+        <v>0.02028160771198934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3450</v>
+        <v>3911</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002726018912744686</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01139046249550902</v>
+        <v>0.01291058235705756</v>
       </c>
     </row>
     <row r="27">
@@ -8616,19 +8616,19 @@
         <v>111071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100027</v>
+        <v>100448</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>120029</v>
+        <v>120080</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7648394508232921</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.688793276438541</v>
+        <v>0.6916874433394969</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8265280963090371</v>
+        <v>0.8268753767702676</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>99</v>
@@ -8637,19 +8637,19 @@
         <v>111800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>99458</v>
+        <v>99237</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>124120</v>
+        <v>123878</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7007227461269739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6233670661890617</v>
+        <v>0.6219811229151242</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7779387773568758</v>
+        <v>0.7764194217254817</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>221</v>
@@ -8658,19 +8658,19 @@
         <v>222871</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>206229</v>
+        <v>206493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>237636</v>
+        <v>238579</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.731273805086705</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6766675023002993</v>
+        <v>0.6775333894267621</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7797211517444768</v>
+        <v>0.7828154250323165</v>
       </c>
     </row>
     <row r="29">
@@ -8687,19 +8687,19 @@
         <v>6719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2550</v>
+        <v>2948</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11972</v>
+        <v>12242</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04626997882849081</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01755783273461297</v>
+        <v>0.02030185077589067</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08243736741436186</v>
+        <v>0.08430241518090899</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -8708,19 +8708,19 @@
         <v>11722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20163</v>
+        <v>20410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0734695938736221</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03681762339948898</v>
+        <v>0.03682302290096606</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1263767653377789</v>
+        <v>0.1279245511343287</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -8729,19 +8729,19 @@
         <v>18441</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11405</v>
+        <v>11470</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27913</v>
+        <v>28409</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06050921097712689</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03742148602866561</v>
+        <v>0.03763461963621891</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09158590397005936</v>
+        <v>0.09321365142233672</v>
       </c>
     </row>
     <row r="30">
@@ -8758,19 +8758,19 @@
         <v>23326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15798</v>
+        <v>15718</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33797</v>
+        <v>33450</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1606253336995952</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1087828969292172</v>
+        <v>0.108231876035989</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2327301621406061</v>
+        <v>0.2303354567279572</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -8779,19 +8779,19 @@
         <v>25700</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16386</v>
+        <v>16816</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37136</v>
+        <v>36703</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1610810291082725</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1027028105255588</v>
+        <v>0.1053988543370377</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2327518691390112</v>
+        <v>0.2300398712721298</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -8800,19 +8800,19 @@
         <v>49027</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36662</v>
+        <v>36370</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62154</v>
+        <v>62433</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1608638941609274</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1202938445554116</v>
+        <v>0.1193368030631814</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2039363561599478</v>
+        <v>0.2048519616391541</v>
       </c>
     </row>
     <row r="31">
@@ -8829,19 +8829,19 @@
         <v>4105</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9103</v>
+        <v>9072</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02826523664862191</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0108589620563112</v>
+        <v>0.01091509232370351</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06268160264888958</v>
+        <v>0.06247214443464344</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -8850,19 +8850,19 @@
         <v>8980</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3867</v>
+        <v>2702</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17657</v>
+        <v>16169</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05628389556566016</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02423407185137438</v>
+        <v>0.01693410666689256</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1106650444904618</v>
+        <v>0.1013385351550788</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -8871,19 +8871,19 @@
         <v>13085</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7288</v>
+        <v>6746</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22296</v>
+        <v>22706</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04293324530062576</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02391197414895692</v>
+        <v>0.02213544000244783</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07315511169032037</v>
+        <v>0.07450129350398851</v>
       </c>
     </row>
     <row r="32">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7525</v>
+        <v>7528</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004419844474614928</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02469008231901185</v>
+        <v>0.02470034747386187</v>
       </c>
     </row>
     <row r="33">
@@ -9047,19 +9047,19 @@
         <v>278364</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>258270</v>
+        <v>255890</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>299244</v>
+        <v>298545</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6738687333484252</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6252246528108591</v>
+        <v>0.619464450300496</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7244168422404289</v>
+        <v>0.7227232139062852</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>239</v>
@@ -9068,19 +9068,19 @@
         <v>278364</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>258270</v>
+        <v>255890</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>299244</v>
+        <v>298545</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6738687333484252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6252246528108591</v>
+        <v>0.619464450300496</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7244168422404289</v>
+        <v>0.7227232139062852</v>
       </c>
     </row>
     <row r="35">
@@ -9106,19 +9106,19 @@
         <v>37358</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26317</v>
+        <v>26415</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>51691</v>
+        <v>51398</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09043714648707167</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0637077540442761</v>
+        <v>0.06394542880572811</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1251352145832257</v>
+        <v>0.1244263371240024</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -9127,19 +9127,19 @@
         <v>37358</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>26317</v>
+        <v>26415</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>51691</v>
+        <v>51398</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09043714648707167</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0637077540442761</v>
+        <v>0.06394542880572811</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1251352145832257</v>
+        <v>0.1244263371240024</v>
       </c>
     </row>
     <row r="36">
@@ -9165,19 +9165,19 @@
         <v>74342</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57643</v>
+        <v>57644</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92831</v>
+        <v>92864</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1799691212828482</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1395423743805684</v>
+        <v>0.1395463424376616</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2247268380553823</v>
+        <v>0.2248067909352509</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>59</v>
@@ -9186,19 +9186,19 @@
         <v>74342</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>57643</v>
+        <v>57644</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>92831</v>
+        <v>92864</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1799691212828482</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1395423743805684</v>
+        <v>0.1395463424376616</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2247268380553823</v>
+        <v>0.2248067909352509</v>
       </c>
     </row>
     <row r="37">
@@ -9224,19 +9224,19 @@
         <v>15013</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7649</v>
+        <v>7636</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24875</v>
+        <v>25412</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03634423885240127</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01851724737924447</v>
+        <v>0.01848526274748982</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0602185901413304</v>
+        <v>0.06151760375218526</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>12</v>
@@ -9245,19 +9245,19 @@
         <v>15013</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7649</v>
+        <v>7636</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>24875</v>
+        <v>25412</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03634423885240127</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01851724737924447</v>
+        <v>0.01848526274748982</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0602185901413304</v>
+        <v>0.06151760375218526</v>
       </c>
     </row>
     <row r="38">
@@ -9283,19 +9283,19 @@
         <v>8006</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2524</v>
+        <v>2470</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16371</v>
+        <v>16612</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01938076002925368</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006110332040486641</v>
+        <v>0.005980072392017578</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03963179344472419</v>
+        <v>0.04021509226115336</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -9304,19 +9304,19 @@
         <v>8006</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2524</v>
+        <v>2470</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16371</v>
+        <v>16612</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01938076002925368</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006110332040486641</v>
+        <v>0.005980072392017578</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03963179344472419</v>
+        <v>0.04021509226115336</v>
       </c>
     </row>
     <row r="39">
@@ -9396,19 +9396,19 @@
         <v>490699</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>460</v>
@@ -9417,19 +9417,19 @@
         <v>535353</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>503805</v>
+        <v>510805</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>563900</v>
+        <v>566104</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6931360248012776</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6522899476950608</v>
+        <v>0.6613529838638206</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7300967321060685</v>
+        <v>0.7329503915957495</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>977</v>
@@ -9438,19 +9438,19 @@
         <v>1026053</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>990704</v>
+        <v>989805</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1057431</v>
+        <v>1056308</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.7524078469802919</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.7264863861451835</v>
+        <v>0.7258277062971463</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7754180160023264</v>
+        <v>0.7745938976967656</v>
       </c>
     </row>
     <row r="41">
@@ -9467,19 +9467,19 @@
         <v>30531</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20969</v>
+        <v>21484</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>41951</v>
+        <v>42537</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05163060380424175</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03546139723112066</v>
+        <v>0.03633118591868357</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07094450627486278</v>
+        <v>0.07193421904954497</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>57</v>
@@ -9488,19 +9488,19 @@
         <v>68262</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>53494</v>
+        <v>52685</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>87430</v>
+        <v>87630</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08837999630527578</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06926016139725269</v>
+        <v>0.0682128422065902</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1131979442831114</v>
+        <v>0.1134563842709615</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -9509,19 +9509,19 @@
         <v>98792</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>79535</v>
+        <v>81466</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>118442</v>
+        <v>120268</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07244461995056668</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05832333815491392</v>
+        <v>0.05973940246187889</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08685409257943218</v>
+        <v>0.08819304994153962</v>
       </c>
     </row>
     <row r="42">
@@ -9538,19 +9538,19 @@
         <v>46539</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>35656</v>
+        <v>35216</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>59010</v>
+        <v>61378</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07870335313210994</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06029771823749912</v>
+        <v>0.05955371008887396</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09979188821602322</v>
+        <v>0.1037974743848477</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>101</v>
@@ -9559,19 +9559,19 @@
         <v>127879</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>104334</v>
+        <v>105846</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>150569</v>
+        <v>153148</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.165568266143932</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1350840694116882</v>
+        <v>0.1370421235013801</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1949456326979926</v>
+        <v>0.1982843181136757</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>151</v>
@@ -9580,19 +9580,19 @@
         <v>174418</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>151140</v>
+        <v>147571</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>203911</v>
+        <v>201047</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1279016548979501</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1108311158045432</v>
+        <v>0.1082144168439731</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1495288269028815</v>
+        <v>0.1474287627344233</v>
       </c>
     </row>
     <row r="43">
@@ -9609,19 +9609,19 @@
         <v>20929</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>13994</v>
+        <v>13638</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>30658</v>
+        <v>30457</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0353928630144093</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0236661376873313</v>
+        <v>0.02306355043276636</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05184524802907194</v>
+        <v>0.05150685645489285</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>25</v>
@@ -9630,19 +9630,19 @@
         <v>31517</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20321</v>
+        <v>20925</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44713</v>
+        <v>46932</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04080627120997124</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02630966492705631</v>
+        <v>0.02709164038857471</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05789072037760819</v>
+        <v>0.06076449204123173</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>49</v>
@@ -9651,19 +9651,19 @@
         <v>52446</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>39830</v>
+        <v>40100</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>68447</v>
+        <v>67948</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03845889371371688</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02920767276853065</v>
+        <v>0.02940514355131878</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05019234592736287</v>
+        <v>0.04982624542022327</v>
       </c>
     </row>
     <row r="44">
@@ -9680,19 +9680,19 @@
         <v>2630</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7488</v>
+        <v>7825</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004447352068985462</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001400006131009914</v>
+        <v>0.00139364584774388</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01266378720100832</v>
+        <v>0.0132321294929337</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>7</v>
@@ -9701,19 +9701,19 @@
         <v>9353</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3820</v>
+        <v>3810</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>19102</v>
+        <v>18526</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01210944153954334</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00494580801295954</v>
+        <v>0.004932449837498068</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02473151985241234</v>
+        <v>0.0239854695504581</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -9722,19 +9722,19 @@
         <v>11983</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5905</v>
+        <v>5993</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>22000</v>
+        <v>21343</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008786984457474353</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004330468972000121</v>
+        <v>0.0043947213973323</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01613291624359441</v>
+        <v>0.01565069552251725</v>
       </c>
     </row>
     <row r="45">
@@ -10068,19 +10068,19 @@
         <v>105249</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97855</v>
+        <v>97974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110289</v>
+        <v>110185</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.874155401532011</v>
+        <v>0.8741554015320109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8127455263931964</v>
+        <v>0.8137332262422032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9160131629500428</v>
+        <v>0.9151528734758514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -10089,19 +10089,19 @@
         <v>60983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54778</v>
+        <v>54370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66282</v>
+        <v>65790</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8179104415603402</v>
+        <v>0.8179104415603403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7346901860453957</v>
+        <v>0.7292258234307861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8889908458658972</v>
+        <v>0.8823907842272996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>259</v>
@@ -10110,19 +10110,19 @@
         <v>166232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157603</v>
+        <v>156776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173971</v>
+        <v>173491</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8526455183640617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8083867476108761</v>
+        <v>0.8041442739602883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8923400618783166</v>
+        <v>0.8898790015516579</v>
       </c>
     </row>
     <row r="5">
@@ -10139,19 +10139,19 @@
         <v>9044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4933</v>
+        <v>4904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15314</v>
+        <v>15356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07511197350860618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04097238911518963</v>
+        <v>0.04073114785019632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1271883133178811</v>
+        <v>0.1275432293899762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -10160,19 +10160,19 @@
         <v>8167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4563</v>
+        <v>4595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14395</v>
+        <v>14793</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1095417914265769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06120443323951582</v>
+        <v>0.0616308546287003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1930699217238158</v>
+        <v>0.198405340098743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -10181,19 +10181,19 @@
         <v>17211</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11587</v>
+        <v>11332</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25265</v>
+        <v>25649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08827904414537668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05943321250907865</v>
+        <v>0.05812524704299203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1295930885877608</v>
+        <v>0.1315626229529984</v>
       </c>
     </row>
     <row r="6">
@@ -10210,19 +10210,19 @@
         <v>5793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2819</v>
+        <v>2756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9945</v>
+        <v>10050</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04811789666301318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02341142531854096</v>
+        <v>0.02288862413937063</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08260287087045137</v>
+        <v>0.08347060115631799</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -10231,19 +10231,19 @@
         <v>5409</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2582</v>
+        <v>2769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9298</v>
+        <v>9703</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07254776701308296</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03462476913782614</v>
+        <v>0.037137865105811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1247000415524196</v>
+        <v>0.1301381975262067</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -10252,19 +10252,19 @@
         <v>11203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6774</v>
+        <v>7100</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17081</v>
+        <v>17399</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05746066546048096</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03474775795114386</v>
+        <v>0.03641979419669712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08761328850515999</v>
+        <v>0.08924464346925017</v>
       </c>
     </row>
     <row r="7">
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1594</v>
+        <v>2161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002614728296369653</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01324051266007084</v>
+        <v>0.01794855299183641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1890</v>
+        <v>1486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00161477203008072</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009696690816325539</v>
+        <v>0.007619750951262744</v>
       </c>
     </row>
     <row r="8">
@@ -10466,19 +10466,19 @@
         <v>89468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82639</v>
+        <v>82119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95019</v>
+        <v>94965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8543961850281149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.789180410366173</v>
+        <v>0.7842188377027687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9074030700687818</v>
+        <v>0.906886398598878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -10487,19 +10487,19 @@
         <v>39560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34035</v>
+        <v>34124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44099</v>
+        <v>44462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7187580245598565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6183642321290538</v>
+        <v>0.6199790771294575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8012239049270858</v>
+        <v>0.8078063754183079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -10508,19 +10508,19 @@
         <v>129029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120340</v>
+        <v>120169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135966</v>
+        <v>136819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8076653012868762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7532775663776806</v>
+        <v>0.7522080317731846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8510882047965617</v>
+        <v>0.8564323233644223</v>
       </c>
     </row>
     <row r="11">
@@ -10537,19 +10537,19 @@
         <v>8059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4229</v>
+        <v>4238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13684</v>
+        <v>14033</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0769594820269867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04038608165900791</v>
+        <v>0.04047460048323662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1306781155015826</v>
+        <v>0.1340092110323118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -10558,19 +10558,19 @@
         <v>8709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5140</v>
+        <v>4917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13007</v>
+        <v>13330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1582290340761813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09337822677421154</v>
+        <v>0.08933862109452687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2363188669802444</v>
+        <v>0.2421889267374995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -10579,19 +10579,19 @@
         <v>16768</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11528</v>
+        <v>11189</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23073</v>
+        <v>22769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1049589622278568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07216094669092457</v>
+        <v>0.07003718971564002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1444273929568948</v>
+        <v>0.1425243830621391</v>
       </c>
     </row>
     <row r="12">
@@ -10608,19 +10608,19 @@
         <v>6590</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3283</v>
+        <v>3156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13373</v>
+        <v>12458</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06293680407509514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03135528093228725</v>
+        <v>0.03014144605895873</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1277110878401713</v>
+        <v>0.118973761128023</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -10629,19 +10629,19 @@
         <v>5135</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2334</v>
+        <v>2576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8929</v>
+        <v>9219</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09328968720672147</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04241455348113675</v>
+        <v>0.04680714899539293</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1622318950474205</v>
+        <v>0.1674924449339791</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -10650,19 +10650,19 @@
         <v>11725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6931</v>
+        <v>6839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18320</v>
+        <v>18529</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07339416392086925</v>
+        <v>0.07339416392086924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04338586318876138</v>
+        <v>0.04281134361454544</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1146756388416819</v>
+        <v>0.1159816060869174</v>
       </c>
     </row>
     <row r="13">
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3343</v>
+        <v>3197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005707528869803368</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03192522197005269</v>
+        <v>0.03053394305393502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -10700,19 +10700,19 @@
         <v>1636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4660</v>
+        <v>4421</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02972325415724066</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007110968322873141</v>
+        <v>0.007071008012299955</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08467316464802872</v>
+        <v>0.08033201071084234</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -10721,19 +10721,19 @@
         <v>2234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5798</v>
+        <v>5502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0139815725643976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003695797953454704</v>
+        <v>0.003684504066161327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03629521913529601</v>
+        <v>0.03444279901265238</v>
       </c>
     </row>
     <row r="14">
@@ -10872,19 +10872,19 @@
         <v>87739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79690</v>
+        <v>79359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95065</v>
+        <v>94225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7801021329941985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7085371677521752</v>
+        <v>0.7055921623584041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8452362828103932</v>
+        <v>0.8377706114085942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -10893,19 +10893,19 @@
         <v>34291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28283</v>
+        <v>28284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39926</v>
+        <v>39696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5915274718008369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4878952602377499</v>
+        <v>0.4879112128514216</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6887341996445229</v>
+        <v>0.6847725486727343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>189</v>
@@ -10914,19 +10914,19 @@
         <v>122030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112803</v>
+        <v>112028</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130690</v>
+        <v>130450</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7159643203314849</v>
+        <v>0.7159643203314848</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6618294358669953</v>
+        <v>0.6572828385992378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.76677496065178</v>
+        <v>0.7653674693714443</v>
       </c>
     </row>
     <row r="17">
@@ -10943,19 +10943,19 @@
         <v>10474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6104</v>
+        <v>6216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16978</v>
+        <v>15847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09312237434971612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05427038697569904</v>
+        <v>0.05527094588440566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1509574470218496</v>
+        <v>0.1409007132381224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -10964,19 +10964,19 @@
         <v>11646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7366</v>
+        <v>7583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16795</v>
+        <v>17272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2008916781244806</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.127059584900741</v>
+        <v>0.130803216702933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2897106477398095</v>
+        <v>0.297949064261337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -10985,19 +10985,19 @@
         <v>22119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16140</v>
+        <v>16377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29930</v>
+        <v>30053</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1297767550207723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09469430114034928</v>
+        <v>0.0960842609768935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1756048290926721</v>
+        <v>0.1763243303151272</v>
       </c>
     </row>
     <row r="18">
@@ -11014,19 +11014,19 @@
         <v>9258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5203</v>
+        <v>5430</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15106</v>
+        <v>15531</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08231488277608233</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04626461132803922</v>
+        <v>0.04828002272024787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1343077887552825</v>
+        <v>0.1380863193274197</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -11035,19 +11035,19 @@
         <v>10427</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6096</v>
+        <v>6363</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16012</v>
+        <v>15443</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1798643219096238</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1051551437827228</v>
+        <v>0.1097636017227118</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2762173852255484</v>
+        <v>0.2663953433733098</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -11056,19 +11056,19 @@
         <v>19685</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13571</v>
+        <v>13883</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27091</v>
+        <v>27465</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1154932939841737</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0796212725000021</v>
+        <v>0.08145166294211022</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1589483071030753</v>
+        <v>0.1611431899695246</v>
       </c>
     </row>
     <row r="19">
@@ -11085,19 +11085,19 @@
         <v>4523</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1983</v>
+        <v>1942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9051</v>
+        <v>9139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04021810978944022</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01763558251147071</v>
+        <v>0.01726947817514781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08047375926036339</v>
+        <v>0.08125209520287709</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -11106,19 +11106,19 @@
         <v>1607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5147</v>
+        <v>4524</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02771652816505895</v>
+        <v>0.02771652816505894</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006516457758311496</v>
+        <v>0.006688521739734355</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0887950845938044</v>
+        <v>0.07804316751022122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -11127,19 +11127,19 @@
         <v>6130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3181</v>
+        <v>3000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11489</v>
+        <v>11278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03596608517946354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01866444556174545</v>
+        <v>0.01760113092949409</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06740768093523783</v>
+        <v>0.06617023514697569</v>
       </c>
     </row>
     <row r="20">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2719</v>
+        <v>2880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004242500090562728</v>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02417768391695562</v>
+        <v>0.02560664992990772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2664</v>
+        <v>2352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002799545484105577</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01562960383625984</v>
+        <v>0.01380160086791453</v>
       </c>
     </row>
     <row r="21">
@@ -11294,19 +11294,19 @@
         <v>194625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182105</v>
+        <v>183283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205340</v>
+        <v>205805</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7548069910180235</v>
+        <v>0.7548069910180234</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.706250908790705</v>
+        <v>0.7108212788399785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7963646651087584</v>
+        <v>0.7981671618022848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -11315,19 +11315,19 @@
         <v>92204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84773</v>
+        <v>84790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99370</v>
+        <v>98738</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7078168226386632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.650776274906304</v>
+        <v>0.6509021324151075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7628286908023203</v>
+        <v>0.7579743278699964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>457</v>
@@ -11336,19 +11336,19 @@
         <v>286828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>272849</v>
+        <v>272084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>300889</v>
+        <v>299788</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7390353384029518</v>
+        <v>0.7390353384029519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7030157880047841</v>
+        <v>0.7010454617305552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7752629979466723</v>
+        <v>0.7724269890220653</v>
       </c>
     </row>
     <row r="23">
@@ -11365,19 +11365,19 @@
         <v>17924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12150</v>
+        <v>11998</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25758</v>
+        <v>25829</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06951311820889523</v>
+        <v>0.06951311820889522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0471221715272887</v>
+        <v>0.04653305305713214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09989681346621715</v>
+        <v>0.1001728872849295</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -11386,19 +11386,19 @@
         <v>15726</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10979</v>
+        <v>11261</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21774</v>
+        <v>21392</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1207232782055169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08428242075447029</v>
+        <v>0.08644323746630844</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1671539783741517</v>
+        <v>0.1642211999080645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>58</v>
@@ -11407,19 +11407,19 @@
         <v>33650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25621</v>
+        <v>25816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44228</v>
+        <v>42463</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08670115736015985</v>
+        <v>0.08670115736015986</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06601338857186735</v>
+        <v>0.06651735483056433</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.113956783256113</v>
+        <v>0.1094087488905092</v>
       </c>
     </row>
     <row r="24">
@@ -11436,19 +11436,19 @@
         <v>34023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25136</v>
+        <v>26038</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43372</v>
+        <v>43974</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1319484939443883</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09748226726475422</v>
+        <v>0.1009832203068852</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1682070399447172</v>
+        <v>0.1705431394842697</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -11457,19 +11457,19 @@
         <v>16476</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11437</v>
+        <v>11426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22039</v>
+        <v>22866</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1264780220886203</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08779697171728285</v>
+        <v>0.08771575816118926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1691842294748288</v>
+        <v>0.1755355771533578</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -11478,19 +11478,19 @@
         <v>50498</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40583</v>
+        <v>40724</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62579</v>
+        <v>61980</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1301123996139071</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1045655614764619</v>
+        <v>0.1049284776735429</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1612405729884882</v>
+        <v>0.1596962015971183</v>
       </c>
     </row>
     <row r="25">
@@ -11507,19 +11507,19 @@
         <v>10934</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6253</v>
+        <v>6000</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18179</v>
+        <v>18462</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0424043173674438</v>
+        <v>0.04240431736744379</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02424907190972208</v>
+        <v>0.02326769469073785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07050268050117156</v>
+        <v>0.07159982473953137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -11528,19 +11528,19 @@
         <v>5547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2901</v>
+        <v>2948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9815</v>
+        <v>9655</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04257947596869106</v>
+        <v>0.04257947596869105</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0222712727684557</v>
+        <v>0.02262815306750764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07534935065492661</v>
+        <v>0.07411621588707527</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -11549,19 +11549,19 @@
         <v>16480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10813</v>
+        <v>11078</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23705</v>
+        <v>25024</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04246310712510355</v>
+        <v>0.04246310712510356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02786053284675748</v>
+        <v>0.02854283895622734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06107811830403086</v>
+        <v>0.06447635244456153</v>
       </c>
     </row>
     <row r="26">
@@ -11581,16 +11581,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1795</v>
+        <v>1750</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001327079461249183</v>
+        <v>0.001327079461249182</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006961975950257821</v>
+        <v>0.006785938216929789</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -11602,16 +11602,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1601</v>
+        <v>1886</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.002402401098508579</v>
+        <v>0.002402401098508578</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01228942969015598</v>
+        <v>0.0144782861485645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -11623,16 +11623,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2321</v>
+        <v>2341</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.001687997497877769</v>
+        <v>0.00168799749787777</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.005979609231230445</v>
+        <v>0.006031304498710538</v>
       </c>
     </row>
     <row r="27">
@@ -11724,19 +11724,19 @@
         <v>74816</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>67231</v>
+        <v>67868</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>81497</v>
+        <v>81677</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7422705054099336</v>
+        <v>0.7422705054099338</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6670159808242084</v>
+        <v>0.6733438863419916</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8085598167169414</v>
+        <v>0.8103441064898644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>233</v>
@@ -11745,19 +11745,19 @@
         <v>116832</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106882</v>
+        <v>105693</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>126687</v>
+        <v>127117</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.53557617109458</v>
+        <v>0.5355761710945801</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4899646546922686</v>
+        <v>0.4845119278451069</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5807540895892289</v>
+        <v>0.5827251319190973</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>337</v>
@@ -11766,19 +11766,19 @@
         <v>191648</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>179470</v>
+        <v>177912</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>205846</v>
+        <v>203477</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6008976365113282</v>
+        <v>0.6008976365113281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5627127136697103</v>
+        <v>0.5578276345705152</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6454140449840484</v>
+        <v>0.6379855613225153</v>
       </c>
     </row>
     <row r="29">
@@ -11795,19 +11795,19 @@
         <v>12602</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7925</v>
+        <v>7354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19012</v>
+        <v>18694</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1250245013594984</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07862952485538142</v>
+        <v>0.07295682413991098</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1886257464379384</v>
+        <v>0.1854675850974093</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>76</v>
@@ -11816,19 +11816,19 @@
         <v>38143</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30573</v>
+        <v>30633</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46630</v>
+        <v>46722</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1748536732972933</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1401512152797116</v>
+        <v>0.1404267758705271</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2137610067020959</v>
+        <v>0.214178407067147</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -11837,19 +11837,19 @@
         <v>50745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41972</v>
+        <v>41452</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61464</v>
+        <v>60541</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1591061950596274</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.131598894082734</v>
+        <v>0.1299678249470006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1927159085434918</v>
+        <v>0.1898215836761963</v>
       </c>
     </row>
     <row r="30">
@@ -11866,19 +11866,19 @@
         <v>10091</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6195</v>
+        <v>6056</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15156</v>
+        <v>15141</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1001118873468609</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06146640943726282</v>
+        <v>0.06007944078430214</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1503708438498678</v>
+        <v>0.1502173802582094</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>88</v>
@@ -11887,19 +11887,19 @@
         <v>42138</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34564</v>
+        <v>35042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50787</v>
+        <v>50784</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1931668184101969</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1584485425102688</v>
+        <v>0.1606364731165797</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2328137036808567</v>
+        <v>0.2328029508520727</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>107</v>
@@ -11908,19 +11908,19 @@
         <v>52229</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>42895</v>
+        <v>42578</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62852</v>
+        <v>61862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1637587338516833</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1344936533206203</v>
+        <v>0.133499167374599</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1970674141850848</v>
+        <v>0.1939643012555582</v>
       </c>
     </row>
     <row r="31">
@@ -11937,19 +11937,19 @@
         <v>2943</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>959</v>
+        <v>1270</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7328</v>
+        <v>7807</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.02919820636095876</v>
+        <v>0.02919820636095877</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009515099464407284</v>
+        <v>0.01260200720659057</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07269992716368121</v>
+        <v>0.07745243648365124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -11958,19 +11958,19 @@
         <v>17558</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12442</v>
+        <v>12354</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24065</v>
+        <v>23646</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08048942498413331</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05703480551792045</v>
+        <v>0.05663096274047834</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1103184726167564</v>
+        <v>0.108396527616934</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -11979,19 +11979,19 @@
         <v>20501</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15044</v>
+        <v>14783</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27107</v>
+        <v>27716</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.06427989715854311</v>
+        <v>0.06427989715854313</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04717003876027018</v>
+        <v>0.04635105897705506</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0849916217551888</v>
+        <v>0.08690125582261236</v>
       </c>
     </row>
     <row r="32">
@@ -12011,16 +12011,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1732</v>
+        <v>1796</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.003394899522748319</v>
+        <v>0.00339489952274832</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0171866851183772</v>
+        <v>0.01781411727369925</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -12029,19 +12029,19 @@
         <v>3472</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1611</v>
+        <v>1400</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7283</v>
+        <v>7701</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01591391221379642</v>
+        <v>0.01591391221379643</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0073851373452986</v>
+        <v>0.006418326313338684</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03338712518794953</v>
+        <v>0.0353014727844376</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -12050,19 +12050,19 @@
         <v>3814</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1738</v>
+        <v>1637</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7579</v>
+        <v>7292</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0119575374188179</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005450720157194007</v>
+        <v>0.005133707657568971</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02376418058747467</v>
+        <v>0.02286250901888816</v>
       </c>
     </row>
     <row r="33">
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>390</v>
@@ -12175,19 +12175,19 @@
         <v>206721</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>192213</v>
+        <v>192390</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>219358</v>
+        <v>220659</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6021175749496156</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5598593829159307</v>
+        <v>0.5603739261053896</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6389228756959889</v>
+        <v>0.6427146151757072</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>392</v>
@@ -12196,19 +12196,19 @@
         <v>207793</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>195530</v>
+        <v>194492</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>222054</v>
+        <v>221593</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5995194927882732</v>
+        <v>0.5995194927882733</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5641367088250697</v>
+        <v>0.5611433237501746</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.64066380235164</v>
+        <v>0.6393341950397716</v>
       </c>
     </row>
     <row r="35">
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2636</v>
+        <v>2603</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3123949391428859</v>
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.804669589099966</v>
+        <v>0.7945659606268588</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>80</v>
@@ -12246,19 +12246,19 @@
         <v>44413</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35688</v>
+        <v>35190</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>55305</v>
+        <v>53546</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1293630840233833</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.103947824151705</v>
+        <v>0.1024974713441672</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1610857519038101</v>
+        <v>0.1559631980501613</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>82</v>
@@ -12267,19 +12267,19 @@
         <v>45437</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36598</v>
+        <v>37218</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>55771</v>
+        <v>54904</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1310931512904709</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1055914487375353</v>
+        <v>0.1073800134048624</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1609075392035696</v>
+        <v>0.1584083420970769</v>
       </c>
     </row>
     <row r="36">
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3603506700100866</v>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7216154690530149</v>
+        <v>0.7167320982215601</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>104</v>
@@ -12317,19 +12317,19 @@
         <v>56586</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46450</v>
+        <v>46774</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>66571</v>
+        <v>68429</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1648191723901012</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1352961171114555</v>
+        <v>0.1362396233860481</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1939002179629433</v>
+        <v>0.1993117473991935</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>106</v>
@@ -12338,19 +12338,19 @@
         <v>57767</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47952</v>
+        <v>47921</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68426</v>
+        <v>69474</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1666673897044921</v>
+        <v>0.1666673897044922</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1383508250614316</v>
+        <v>0.1382612483980696</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1974199848005795</v>
+        <v>0.2004455485407313</v>
       </c>
     </row>
     <row r="37">
@@ -12380,19 +12380,19 @@
         <v>32638</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24701</v>
+        <v>24520</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>41305</v>
+        <v>42005</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.09506606115743561</v>
+        <v>0.0950660611574356</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07194745547891541</v>
+        <v>0.07141880654178104</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1203094368253334</v>
+        <v>0.1223493380851347</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>52</v>
@@ -12401,19 +12401,19 @@
         <v>32638</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24331</v>
+        <v>24898</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42664</v>
+        <v>42124</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.09416747068796759</v>
+        <v>0.09416747068796762</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07019859806127686</v>
+        <v>0.07183584380293996</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1230942706656236</v>
+        <v>0.1215345393141163</v>
       </c>
     </row>
     <row r="38">
@@ -12443,19 +12443,19 @@
         <v>2964</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6422</v>
+        <v>6592</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.008634107479464309</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003454687698530412</v>
+        <v>0.003522625073190659</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01870647401299662</v>
+        <v>0.01920125987844127</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -12464,19 +12464,19 @@
         <v>2964</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1250</v>
+        <v>1170</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6650</v>
+        <v>6840</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.008552495528796023</v>
+        <v>0.008552495528796025</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.00360650944907267</v>
+        <v>0.003375609423189361</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01918539209373985</v>
+        <v>0.01973557644455635</v>
       </c>
     </row>
     <row r="39">
@@ -12568,19 +12568,19 @@
         <v>552969</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>534780</v>
+        <v>534088</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>570294</v>
+        <v>570365</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.7905163411920466</v>
+        <v>0.7905163411920465</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7645130137258326</v>
+        <v>0.7635240020097427</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.815283831642063</v>
+        <v>0.815384227511932</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1051</v>
@@ -12589,19 +12589,19 @@
         <v>550591</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>529052</v>
+        <v>529698</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>572447</v>
+        <v>571106</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6261691364857339</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6016733109946815</v>
+        <v>0.6024086080124449</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6510248817910573</v>
+        <v>0.6494998915591411</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1829</v>
@@ -12610,19 +12610,19 @@
         <v>1103560</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1075121</v>
+        <v>1074083</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1133548</v>
+        <v>1131774</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6989846576765367</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6809712050840585</v>
+        <v>0.6803136150131702</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7179786518341319</v>
+        <v>0.7168548598268735</v>
       </c>
     </row>
     <row r="41">
@@ -12639,19 +12639,19 @@
         <v>59125</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>47936</v>
+        <v>47828</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>71914</v>
+        <v>72218</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.08452391924459005</v>
+        <v>0.08452391924459003</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06852833384639406</v>
+        <v>0.06837397713993054</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1028069483686438</v>
+        <v>0.1032419478374366</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>234</v>
@@ -12660,19 +12660,19 @@
         <v>126805</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>112138</v>
+        <v>111919</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>144264</v>
+        <v>143781</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1442106388190384</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1275310124034225</v>
+        <v>0.127281530521499</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1640664870212917</v>
+        <v>0.1635177379028674</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>324</v>
@@ -12681,19 +12681,19 @@
         <v>185929</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>164768</v>
+        <v>167813</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>205687</v>
+        <v>206507</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1177658958022695</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1043627292613539</v>
+        <v>0.1062913109109277</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1302801843851473</v>
+        <v>0.1307992589995468</v>
       </c>
     </row>
     <row r="42">
@@ -12710,19 +12710,19 @@
         <v>66936</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>54852</v>
+        <v>55405</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>81509</v>
+        <v>83268</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.09569015076023013</v>
+        <v>0.09569015076023012</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07841574921398935</v>
+        <v>0.07920577103267815</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1165239982172991</v>
+        <v>0.1190389910723634</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>261</v>
@@ -12731,19 +12731,19 @@
         <v>136171</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>122041</v>
+        <v>121208</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>152985</v>
+        <v>152860</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1548622822279726</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1387932019181645</v>
+        <v>0.1378455396261399</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1739848945615042</v>
+        <v>0.1738430592280105</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>365</v>
@@ -12752,19 +12752,19 @@
         <v>203106</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>183548</v>
+        <v>186209</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>224495</v>
+        <v>224737</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1286455321439422</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.116257268863717</v>
+        <v>0.117943250036061</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1421930694683616</v>
+        <v>0.1423465490949084</v>
       </c>
     </row>
     <row r="43">
@@ -12781,19 +12781,19 @@
         <v>19313</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12903</v>
+        <v>12810</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>28026</v>
+        <v>27740</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02760909002026401</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01844579478631201</v>
+        <v>0.01831300055522246</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04006498378073869</v>
+        <v>0.03965658706935433</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>104</v>
@@ -12802,19 +12802,19 @@
         <v>58986</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>48919</v>
+        <v>49172</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>71364</v>
+        <v>73493</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.06708280359052858</v>
+        <v>0.06708280359052859</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05563375686976915</v>
+        <v>0.05592222104132143</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08116017940810653</v>
+        <v>0.08358165852239827</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>133</v>
@@ -12823,19 +12823,19 @@
         <v>78299</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>64726</v>
+        <v>65417</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>92493</v>
+        <v>92216</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04959361640239456</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04099651467152474</v>
+        <v>0.04143426883312708</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0585842742591605</v>
+        <v>0.05840898337554337</v>
       </c>
     </row>
     <row r="44">
@@ -12852,19 +12852,19 @@
         <v>1162</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>3449</v>
+        <v>3230</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001660498782869239</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0004866652431251368</v>
+        <v>0.0004869110451269326</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004930460280843693</v>
+        <v>0.0046172025046367</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>14</v>
@@ -12873,19 +12873,19 @@
         <v>6749</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3593</v>
+        <v>3830</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>11132</v>
+        <v>12003</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.007675138876726616</v>
+        <v>0.007675138876726618</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004086663233508147</v>
+        <v>0.00435548346036546</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01266052030636532</v>
+        <v>0.01365072166548133</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>17</v>
@@ -12894,19 +12894,19 @@
         <v>7910</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4775</v>
+        <v>4840</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>12175</v>
+        <v>12918</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005010297974856978</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003024302148094632</v>
+        <v>0.003065465338919668</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.007711760287759524</v>
+        <v>0.008181837147679517</v>
       </c>
     </row>
     <row r="45">
